--- a/src/docs/hp10c display map.xlsx
+++ b/src/docs/hp10c display map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="28785" windowWidth="35340" windowHeight="13875" activeTab="1"/>
+    <workbookView xWindow="25800" yWindow="10380" windowWidth="26805" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="76">
   <si>
     <t>20</t>
   </si>
@@ -234,9 +235,6 @@
   </si>
   <si>
     <t>Register 10</t>
-  </si>
-  <si>
-    <t>(f)</t>
   </si>
   <si>
     <t>RAD</t>
@@ -601,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -803,7 +801,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -873,6 +870,18 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -882,6 +891,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,15 +907,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5915,22 +5924,28 @@
   <dimension ref="A1:BE19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="25.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="4" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="63" customWidth="1"/>
+    <col min="12" max="12" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.125" style="63" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="63" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.75" style="63" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="4" style="63" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="6" style="63" bestFit="1" customWidth="1"/>
-    <col min="30" max="54" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.25" style="63" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="30" max="50" width="4" style="63" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="8.125" style="63" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="4" style="63" bestFit="1" customWidth="1"/>
     <col min="58" max="62" width="11.625" style="10" customWidth="1"/>
@@ -5946,84 +5961,84 @@
       <c r="A2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="93">
-        <v>0</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="B2" s="96">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="99">
         <v>1</v>
       </c>
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
       <c r="I2" s="101"/>
-      <c r="J2" s="93">
-        <v>2</v>
-      </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="J2" s="96">
+        <v>2</v>
+      </c>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="99">
         <v>3</v>
       </c>
       <c r="O2" s="100"/>
       <c r="P2" s="100"/>
       <c r="Q2" s="101"/>
-      <c r="R2" s="93">
-        <v>4</v>
-      </c>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="95"/>
+      <c r="R2" s="96">
+        <v>4</v>
+      </c>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="98"/>
       <c r="V2" s="99">
         <v>5</v>
       </c>
       <c r="W2" s="100"/>
       <c r="X2" s="100"/>
       <c r="Y2" s="101"/>
-      <c r="Z2" s="93">
+      <c r="Z2" s="96">
         <v>6</v>
       </c>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="95"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="98"/>
       <c r="AD2" s="99">
         <v>7</v>
       </c>
       <c r="AE2" s="100"/>
       <c r="AF2" s="100"/>
       <c r="AG2" s="101"/>
-      <c r="AH2" s="93">
+      <c r="AH2" s="96">
         <v>8</v>
       </c>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="95"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="98"/>
       <c r="AL2" s="99">
         <v>9</v>
       </c>
       <c r="AM2" s="100"/>
       <c r="AN2" s="100"/>
       <c r="AO2" s="101"/>
-      <c r="AP2" s="93">
+      <c r="AP2" s="96">
         <v>10</v>
       </c>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="95"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="98"/>
       <c r="AT2" s="99">
         <v>11</v>
       </c>
       <c r="AU2" s="100"/>
       <c r="AV2" s="100"/>
       <c r="AW2" s="101"/>
-      <c r="AX2" s="93">
+      <c r="AX2" s="96">
         <v>12</v>
       </c>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="95"/>
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="98"/>
       <c r="BB2" s="99">
         <v>13</v>
       </c>
@@ -6050,7 +6065,9 @@
       <c r="J3" s="57">
         <v>8</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="57">
+        <v>8</v>
+      </c>
       <c r="L3" s="19">
         <v>7</v>
       </c>
@@ -6060,7 +6077,9 @@
       <c r="N3" s="20">
         <v>9</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="20">
+        <v>9</v>
+      </c>
       <c r="P3" s="24">
         <v>9</v>
       </c>
@@ -6200,24 +6219,28 @@
         <v>24</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="92" t="s">
+        <v>69</v>
+      </c>
       <c r="L4" s="19" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="P4" s="24" t="s">
         <v>28</v>
       </c>
@@ -6228,7 +6251,7 @@
         <v>24</v>
       </c>
       <c r="S4" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T4" s="52" t="s">
         <v>28</v>
@@ -6376,7 +6399,7 @@
       <c r="J5" s="58">
         <v>8</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="57">
         <v>4</v>
       </c>
       <c r="L5" s="39">
@@ -6388,7 +6411,7 @@
       <c r="N5" s="40">
         <v>8</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="20">
         <v>4</v>
       </c>
       <c r="P5" s="44">
@@ -6531,84 +6554,84 @@
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="93">
-        <v>0</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
+      <c r="B9" s="96">
+        <v>0</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="99">
         <v>1</v>
       </c>
       <c r="G9" s="100"/>
       <c r="H9" s="100"/>
       <c r="I9" s="101"/>
-      <c r="J9" s="93">
-        <v>2</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
+      <c r="J9" s="96">
+        <v>2</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
       <c r="N9" s="99">
         <v>3</v>
       </c>
       <c r="O9" s="100"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="93">
-        <v>4</v>
-      </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="95"/>
+      <c r="R9" s="96">
+        <v>4</v>
+      </c>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="99">
         <v>5</v>
       </c>
       <c r="W9" s="100"/>
       <c r="X9" s="100"/>
       <c r="Y9" s="101"/>
-      <c r="Z9" s="93">
+      <c r="Z9" s="96">
         <v>6</v>
       </c>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="95"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="98"/>
       <c r="AD9" s="99">
         <v>7</v>
       </c>
       <c r="AE9" s="100"/>
       <c r="AF9" s="100"/>
       <c r="AG9" s="101"/>
-      <c r="AH9" s="93">
+      <c r="AH9" s="96">
         <v>8</v>
       </c>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="95"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="98"/>
       <c r="AL9" s="99">
         <v>9</v>
       </c>
       <c r="AM9" s="100"/>
       <c r="AN9" s="100"/>
       <c r="AO9" s="101"/>
-      <c r="AP9" s="93">
+      <c r="AP9" s="96">
         <v>10</v>
       </c>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="95"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="98"/>
       <c r="AT9" s="99">
         <v>11</v>
       </c>
       <c r="AU9" s="100"/>
       <c r="AV9" s="100"/>
       <c r="AW9" s="101"/>
-      <c r="AX9" s="93">
+      <c r="AX9" s="96">
         <v>12</v>
       </c>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="95"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="98"/>
       <c r="BB9" s="99">
         <v>13</v>
       </c>
@@ -6659,7 +6682,9 @@
       <c r="R10" s="20">
         <v>4</v>
       </c>
-      <c r="S10" s="13"/>
+      <c r="S10" s="20">
+        <v>4</v>
+      </c>
       <c r="T10" s="26">
         <v>2</v>
       </c>
@@ -6675,7 +6700,9 @@
       <c r="X10" s="30">
         <v>5</v>
       </c>
-      <c r="Y10" s="17"/>
+      <c r="Y10" s="30">
+        <v>5</v>
+      </c>
       <c r="Z10" s="20">
         <v>4</v>
       </c>
@@ -6751,7 +6778,9 @@
       <c r="AX10" s="18">
         <v>2</v>
       </c>
-      <c r="AY10" s="13"/>
+      <c r="AY10" s="18">
+        <v>2</v>
+      </c>
       <c r="AZ10" s="52">
         <v>1</v>
       </c>
@@ -6814,7 +6843,9 @@
       <c r="R11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="94" t="s">
+        <v>27</v>
+      </c>
       <c r="T11" s="26" t="s">
         <v>23</v>
       </c>
@@ -6830,7 +6861,9 @@
       <c r="X11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Y11" s="17"/>
+      <c r="Y11" s="95" t="s">
+        <v>72</v>
+      </c>
       <c r="Z11" s="20" t="s">
         <v>22</v>
       </c>
@@ -6906,7 +6939,9 @@
       <c r="AX11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AY11" s="13"/>
+      <c r="AY11" s="93" t="s">
+        <v>71</v>
+      </c>
       <c r="AZ11" s="52" t="s">
         <v>28</v>
       </c>
@@ -6917,7 +6952,7 @@
         <v>24</v>
       </c>
       <c r="BC11" s="61" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="BD11" s="26" t="s">
         <v>28</v>
@@ -6981,7 +7016,7 @@
       <c r="R12" s="40">
         <v>8</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="20">
         <v>4</v>
       </c>
       <c r="T12" s="46">
@@ -6999,7 +7034,7 @@
       <c r="X12" s="50">
         <v>2</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y12" s="30">
         <v>1</v>
       </c>
       <c r="Z12" s="40">
@@ -7077,7 +7112,7 @@
       <c r="AX12" s="38">
         <v>8</v>
       </c>
-      <c r="AY12" s="33">
+      <c r="AY12" s="18">
         <v>4</v>
       </c>
       <c r="AZ12" s="55">
@@ -7103,11 +7138,11 @@
       <c r="BC13" s="53"/>
     </row>
     <row r="14" spans="1:57" ht="26.25" thickBot="1">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
     </row>
     <row r="15" spans="1:57" ht="26.25" thickBot="1">
       <c r="B15" s="64" t="s">
@@ -7118,11 +7153,11 @@
       </c>
     </row>
     <row r="16" spans="1:57" ht="26.25" thickBot="1">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" thickBot="1">
       <c r="B17" s="64" t="s">
@@ -7133,11 +7168,11 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.25" thickBot="1">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
       <c r="F18" s="64" t="s">
         <v>28</v>
       </c>
@@ -7149,6 +7184,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="AX2:BA2"/>
@@ -7165,21 +7215,6 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7197,7 +7232,7 @@
   <cols>
     <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="3.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.625" bestFit="1" customWidth="1"/>
@@ -7212,7 +7247,7 @@
     <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="3.625" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.625" bestFit="1" customWidth="1"/>
     <col min="46" max="49" width="3.625" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="5.625" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="3.625" bestFit="1" customWidth="1"/>
@@ -7284,111 +7319,111 @@
       <c r="A2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="93">
-        <v>0</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="102">
-        <v>1</v>
-      </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="93">
-        <v>2</v>
-      </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="102">
+      <c r="B2" s="96">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="105">
+        <v>1</v>
+      </c>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="96">
+        <v>2</v>
+      </c>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="105">
         <v>3</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="93">
-        <v>4</v>
-      </c>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="102">
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="96">
+        <v>4</v>
+      </c>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="105">
         <v>5</v>
       </c>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="93">
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="96">
         <v>6</v>
       </c>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="102">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="105">
         <v>7</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="93">
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="96">
         <v>8</v>
       </c>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="102">
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="105">
         <v>9</v>
       </c>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="93">
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="96">
         <v>10</v>
       </c>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="102">
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="105">
         <v>11</v>
       </c>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="93">
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="96">
         <v>12</v>
       </c>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="95"/>
-      <c r="BB2" s="102">
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="98"/>
+      <c r="BB2" s="105">
         <v>13</v>
       </c>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="104"/>
+      <c r="BC2" s="106"/>
+      <c r="BD2" s="106"/>
+      <c r="BE2" s="107"/>
     </row>
     <row r="3" spans="1:57" s="10" customFormat="1" ht="25.5">
       <c r="A3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="79">
+      <c r="F3" s="78">
         <v>5</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="74">
         <v>5</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="67"/>
-      <c r="J3" s="79">
+      <c r="J3" s="78">
         <v>5</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="74">
         <v>5</v>
       </c>
       <c r="L3" s="24">
@@ -7481,28 +7516,28 @@
       <c r="AO3" s="25">
         <v>4</v>
       </c>
-      <c r="AP3" s="79">
+      <c r="AP3" s="78">
         <v>5</v>
       </c>
-      <c r="AQ3" s="75">
+      <c r="AQ3" s="74">
         <v>5</v>
       </c>
-      <c r="AR3" s="75">
+      <c r="AR3" s="74">
         <v>5</v>
       </c>
-      <c r="AS3" s="76">
+      <c r="AS3" s="75">
         <v>5</v>
       </c>
       <c r="AT3" s="57">
         <v>1</v>
       </c>
-      <c r="AU3" s="70">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="75">
+      <c r="AU3" s="69">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="74">
         <v>5</v>
       </c>
-      <c r="AW3" s="76">
+      <c r="AW3" s="75">
         <v>5</v>
       </c>
       <c r="AX3" s="28">
@@ -7538,24 +7573,24 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>73</v>
+      <c r="G4" s="80" t="s">
+        <v>72</v>
       </c>
       <c r="H4" s="65"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="74" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -7573,14 +7608,14 @@
       <c r="R4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="71" t="s">
         <v>25</v>
       </c>
       <c r="T4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="73" t="s">
-        <v>72</v>
+      <c r="U4" s="72" t="s">
+        <v>71</v>
       </c>
       <c r="V4" s="57" t="s">
         <v>22</v>
@@ -7642,28 +7677,28 @@
       <c r="AO4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="79" t="s">
+      <c r="AP4" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="AQ4" s="75" t="s">
+      <c r="AQ4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AR4" s="75" t="s">
+      <c r="AR4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="75" t="s">
         <v>25</v>
       </c>
       <c r="AT4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AU4" s="70" t="s">
+      <c r="AU4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="AV4" s="75" t="s">
+      <c r="AV4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AW4" s="76" t="s">
+      <c r="AW4" s="75" t="s">
         <v>27</v>
       </c>
       <c r="AX4" s="28" t="s">
@@ -7707,10 +7742,10 @@
       <c r="E5" s="34">
         <v>1</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="79">
         <v>8</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="76">
         <v>4</v>
       </c>
       <c r="H5" s="66">
@@ -7719,10 +7754,10 @@
       <c r="I5" s="68">
         <v>1</v>
       </c>
-      <c r="J5" s="80">
+      <c r="J5" s="79">
         <v>8</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="76">
         <v>4</v>
       </c>
       <c r="L5" s="44">
@@ -7815,28 +7850,28 @@
       <c r="AO5" s="45">
         <v>1</v>
       </c>
-      <c r="AP5" s="80">
+      <c r="AP5" s="79">
         <v>8</v>
       </c>
-      <c r="AQ5" s="77">
-        <v>4</v>
-      </c>
-      <c r="AR5" s="77">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="78">
+      <c r="AQ5" s="76">
+        <v>4</v>
+      </c>
+      <c r="AR5" s="76">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="77">
         <v>1</v>
       </c>
       <c r="AT5" s="58">
         <v>8</v>
       </c>
-      <c r="AU5" s="71">
-        <v>4</v>
-      </c>
-      <c r="AV5" s="77">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="78">
+      <c r="AU5" s="70">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="76">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="77">
         <v>1</v>
       </c>
       <c r="AX5" s="48">
@@ -8045,94 +8080,94 @@
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="93">
-        <v>0</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="102">
-        <v>1</v>
-      </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="93">
-        <v>2</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="102">
+      <c r="B9" s="96">
+        <v>0</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="105">
+        <v>1</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="96">
+        <v>2</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="105">
         <v>3</v>
       </c>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="93">
-        <v>4</v>
-      </c>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="102">
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="96">
+        <v>4</v>
+      </c>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="105">
         <v>5</v>
       </c>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="93">
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="96">
         <v>6</v>
       </c>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="102">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="105">
         <v>7</v>
       </c>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="93">
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="96">
         <v>8</v>
       </c>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="102">
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="105">
         <v>9</v>
       </c>
-      <c r="AM9" s="103"/>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="93">
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="96">
         <v>10</v>
       </c>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="95"/>
-      <c r="AT9" s="102">
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="105">
         <v>11</v>
       </c>
-      <c r="AU9" s="103"/>
-      <c r="AV9" s="103"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="93">
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="96">
         <v>12</v>
       </c>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="95"/>
-      <c r="BB9" s="102">
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="98"/>
+      <c r="BB9" s="105">
         <v>13</v>
       </c>
-      <c r="BC9" s="103"/>
-      <c r="BD9" s="103"/>
-      <c r="BE9" s="104"/>
+      <c r="BC9" s="106"/>
+      <c r="BD9" s="106"/>
+      <c r="BE9" s="107"/>
     </row>
     <row r="10" spans="1:57" s="10" customFormat="1" ht="25.5">
       <c r="A10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -8242,16 +8277,16 @@
       <c r="AO10" s="25">
         <v>8</v>
       </c>
-      <c r="AP10" s="85">
+      <c r="AP10" s="84">
         <v>10</v>
       </c>
-      <c r="AQ10" s="86">
+      <c r="AQ10" s="85">
         <v>10</v>
       </c>
-      <c r="AR10" s="86">
+      <c r="AR10" s="85">
         <v>10</v>
       </c>
-      <c r="AS10" s="87">
+      <c r="AS10" s="86">
         <v>10</v>
       </c>
       <c r="AT10" s="15">
@@ -8266,10 +8301,10 @@
       <c r="AW10" s="31">
         <v>9</v>
       </c>
-      <c r="AX10" s="85">
+      <c r="AX10" s="84">
         <v>10</v>
       </c>
-      <c r="AY10" s="86">
+      <c r="AY10" s="85">
         <v>10</v>
       </c>
       <c r="AZ10" s="30">
@@ -8278,16 +8313,16 @@
       <c r="BA10" s="31">
         <v>9</v>
       </c>
-      <c r="BB10" s="85">
+      <c r="BB10" s="84">
         <v>10</v>
       </c>
-      <c r="BC10" s="86">
+      <c r="BC10" s="85">
         <v>10</v>
       </c>
-      <c r="BD10" s="86">
+      <c r="BD10" s="85">
         <v>10</v>
       </c>
-      <c r="BE10" s="87">
+      <c r="BE10" s="86">
         <v>10</v>
       </c>
     </row>
@@ -8303,7 +8338,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="67"/>
@@ -8322,8 +8357,8 @@
       <c r="N11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="82" t="s">
-        <v>74</v>
+      <c r="O11" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>22</v>
@@ -8388,14 +8423,14 @@
       <c r="AJ11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AK11" s="84" t="s">
-        <v>75</v>
+      <c r="AK11" s="83" t="s">
+        <v>74</v>
       </c>
       <c r="AL11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AM11" s="83" t="s">
-        <v>70</v>
+      <c r="AM11" s="82" t="s">
+        <v>69</v>
       </c>
       <c r="AN11" s="24" t="s">
         <v>28</v>
@@ -8403,17 +8438,17 @@
       <c r="AO11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AP11" s="85" t="s">
+      <c r="AP11" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="AQ11" s="86" t="s">
+      <c r="AQ11" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AR11" s="86" t="s">
+      <c r="AR11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="AS11" s="88" t="s">
-        <v>76</v>
+      <c r="AS11" s="87" t="s">
+        <v>75</v>
       </c>
       <c r="AT11" s="15" t="s">
         <v>21</v>
@@ -8427,10 +8462,10 @@
       <c r="AW11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AX11" s="85" t="s">
+      <c r="AX11" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AY11" s="86" t="s">
+      <c r="AY11" s="85" t="s">
         <v>25</v>
       </c>
       <c r="AZ11" s="30" t="s">
@@ -8439,16 +8474,16 @@
       <c r="BA11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="BB11" s="85" t="s">
+      <c r="BB11" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="BC11" s="92" t="s">
+      <c r="BC11" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="BD11" s="86" t="s">
+      <c r="BD11" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="BE11" s="87" t="s">
+      <c r="BE11" s="86" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8576,16 +8611,16 @@
       <c r="AO12" s="45">
         <v>1</v>
       </c>
-      <c r="AP12" s="89">
+      <c r="AP12" s="88">
         <v>8</v>
       </c>
-      <c r="AQ12" s="90">
-        <v>4</v>
-      </c>
-      <c r="AR12" s="90">
-        <v>2</v>
-      </c>
-      <c r="AS12" s="91">
+      <c r="AQ12" s="89">
+        <v>4</v>
+      </c>
+      <c r="AR12" s="89">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="90">
         <v>1</v>
       </c>
       <c r="AT12" s="35">
@@ -8600,10 +8635,10 @@
       <c r="AW12" s="51">
         <v>1</v>
       </c>
-      <c r="AX12" s="89">
+      <c r="AX12" s="88">
         <v>8</v>
       </c>
-      <c r="AY12" s="90">
+      <c r="AY12" s="89">
         <v>4</v>
       </c>
       <c r="AZ12" s="50">
@@ -8612,31 +8647,26 @@
       <c r="BA12" s="51">
         <v>1</v>
       </c>
-      <c r="BB12" s="89">
+      <c r="BB12" s="88">
         <v>8</v>
       </c>
-      <c r="BC12" s="90">
-        <v>4</v>
-      </c>
-      <c r="BD12" s="90">
-        <v>2</v>
-      </c>
-      <c r="BE12" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" ht="16.5" thickBot="1">
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-    </row>
+      <c r="BC12" s="89">
+        <v>4</v>
+      </c>
+      <c r="BD12" s="89">
+        <v>2</v>
+      </c>
+      <c r="BE12" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="16.5" thickBot="1"/>
     <row r="14" spans="1:57" s="10" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
       <c r="G14" s="63"/>
@@ -8754,11 +8784,11 @@
       <c r="BE15" s="63"/>
     </row>
     <row r="16" spans="1:57" s="10" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63"/>
@@ -8876,11 +8906,11 @@
       <c r="BE17" s="63"/>
     </row>
     <row r="18" spans="2:57" s="10" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="63"/>
       <c r="F18" s="64" t="s">
         <v>28</v>
@@ -8999,24 +9029,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B18:D18"/>
@@ -9030,6 +9042,24 @@
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
